--- a/biology/Botanique/Dicranum/Dicranum.xlsx
+++ b/biology/Botanique/Dicranum/Dicranum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dicranum est un genre de mousses de la famille des Dicranaceae, parmi celles appelées communément les « vraies mousses ». Ce genre a été décrit en 1801 par le bryologue allemand Johannes Hedwig (1730-1799)[2]. Le nom générique vient du grec δίκρανος - dikranos, « fourchu », en référence au péristome à dents bifides.
-Ce genre peut constituer jusqu'à 40 % du régime alimentaire des lemmings en hiver[3].
+          <t xml:space="preserve">Dicranum est un genre de mousses de la famille des Dicranaceae, parmi celles appelées communément les « vraies mousses ». Ce genre a été décrit en 1801 par le bryologue allemand Johannes Hedwig (1730-1799). Le nom générique vient du grec δίκρανος - dikranos, « fourchu », en référence au péristome à dents bifides.
+Ce genre peut constituer jusqu'à 40 % du régime alimentaire des lemmings en hiver.
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Liste des espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Selon BioLib                    (17 octobre 2018)[4] :
+Selon BioLib                    (17 octobre 2018) :
 Dicranum acutifolium (Lindb. &amp; Arnell) C. Jens. ex Weinm.
 Dicranum angustum Lindb.
 Dicranum bonjeanii De Not.
@@ -546,7 +560,7 @@
 Dicranum tauricum Sap.
 Dicranum undulatum Brid.
 Dicranum viride (Sull. &amp; Lesq.) Lindb.
-Selon Catalogue of Life                                   (17 octobre 2018)[5] :
+Selon Catalogue of Life                                   (17 octobre 2018) :
 Dicranum acanthoneurum C. Müller, 1890
 Dicranum acutifolium C. E. O. Jensen in Weimarck, 1937
 Dicranum albescens C. Müller, 1853
@@ -689,7 +703,7 @@
 Dicranum viridulum (Sullivant) Duby, 1830
 Dicranum yakushimense Sakurai, 1952
 Dicranum yezomontanum Noguchi, 1952
-Selon ITIS      (17 octobre 2018)[6] :
+Selon ITIS      (17 octobre 2018) :
 variété Dicranum fuscescens var. flexicaule (Brid.) Wils.
 variété Dicranum fuscescens var. fuscescens Turn.
 variété Dicranum majus var. majus Sm.
@@ -720,7 +734,7 @@
 Dicranum spurium Hedw.
 Dicranum tauricum Sapeh.
 Dicranum viride (Sull. &amp; Lesq. in Sull.) Lindb.
-Selon NCBI  (17 octobre 2018)[7] :
+Selon NCBI  (17 octobre 2018) :
 Dicranum acutifolium
 Dicranum angustum
 Dicranum bardunovii
@@ -760,7 +774,7 @@
 Dicranum tauricum
 Dicranum undulatum
 Dicranum viride
-Selon The Plant List            (17 octobre 2018)[8] :
+Selon The Plant List            (17 octobre 2018) :
 Dicranum acanthoneurum Müll. Hal.
 Dicranum acuminatum (Mitt.) Müll. Hal.
 Dicranum acutifolium (Lindb. &amp; Arnell) C.E.O. Jensen
@@ -1086,7 +1100,7 @@
 Dicranum widgrenii Müll. Hal.
 Dicranum yezomontanum Nog.
 Dicranum zygodonticarpum Müll. Hal.
-Selon Tropicos                                           (17 octobre 2018)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (17 octobre 2018) (Attention liste brute contenant possiblement des synonymes) :
 Dicranum acanthoneuron Müll. Hal.
 Dicranum aciculare Hedw.
 Dicranum aciphyllum Hook. f. &amp; Wilson
@@ -1507,7 +1521,8 @@
 Dicranum klauteri Reimers
 Dicranum kowaiense R. Br. bis
 Dicranum krauseanum Hampe &amp; Lorentz
-Dicranum kroneanum Müll. </t>
+Dicranum kroneanum Müll. Hal.
+Dicranum kune</t>
         </is>
       </c>
     </row>
